--- a/attendance/src/main/resources/Sanity.xlsx
+++ b/attendance/src/main/resources/Sanity.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\attendance\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603E68B3-68AA-4ADA-8917-2F2F7FB23A61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B324A1-B26C-41A7-8434-C14E5F700C52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="394">
   <si>
     <t>TCID</t>
   </si>
@@ -1030,13 +1030,190 @@
   </si>
   <si>
     <t>Check Out time assigned for policy and Recorded Out time displayed at user end</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Reports.xlsx</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestAbsenteesDateWise</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestAttendanceSummary</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestAttendanceAssignments</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestAttendanceLocationSummary</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestDailyAttendanceRoster</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestLateMarkSummary</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestLateMarkDatewise</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestEarlyOutSummary</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestEarlyOutDatewise</t>
+  </si>
+  <si>
+    <t>EarlyOut</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestDatewiseAttendanceStatus</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestWorkDurationSummary</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestShiftsRoster</t>
+  </si>
+  <si>
+    <t>shiftsRoster</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestShiftsRosterFuture</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.displays.TestMarkInPolicy</t>
+  </si>
+  <si>
+    <t>MarkIn</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestCompleteCombination</t>
+  </si>
+  <si>
+    <t>WorkDuration</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestPresentHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestPresentLeave</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestPresentWeekoff</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestHolidayLeave</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestHolidayWeekoff</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestLeaveWeekoff</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestPresent</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestLeave</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestWeekoff</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestPresentLeaveWeekoff</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestPresentLeaveHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestPresentWeekoffHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestLeaveWeekoffHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.DateWiseAttendanceStatus.TestPresentLeaveWeekoffHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.TestCompleteAttendanceSummary</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestPresentHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestPresentLeave</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestPresentWeekoff</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestHolidayLeave</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestHolidayWeekoff</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestLeaveWeekoff</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestPresent</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestLeave</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestWeekoff</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestPresentLeaveWeekoff</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestPresentLeaveHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestPresentWeekoffHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestLeaveWeekoffHoliday</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.reports.WorkDurationSummary.TestPresentLeaveWeekoffHoliday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1046,6 +1223,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1394,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="E95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4010,295 +4193,907 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="2"/>
+      <c r="A101" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B101" t="s">
+        <v>347</v>
+      </c>
+      <c r="C101" t="s">
+        <v>347</v>
+      </c>
+      <c r="D101" t="s">
+        <v>347</v>
+      </c>
+      <c r="E101" t="s">
+        <v>349</v>
+      </c>
+      <c r="F101" t="s">
+        <v>336</v>
+      </c>
+      <c r="G101" t="s">
+        <v>353</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="2"/>
+      <c r="A102" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" t="s">
+        <v>347</v>
+      </c>
+      <c r="C102" t="s">
+        <v>347</v>
+      </c>
+      <c r="D102" t="s">
+        <v>347</v>
+      </c>
+      <c r="E102" t="s">
+        <v>338</v>
+      </c>
+      <c r="F102" t="s">
+        <v>336</v>
+      </c>
+      <c r="G102" t="s">
+        <v>337</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="2"/>
+      <c r="A103" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B103" t="s">
+        <v>347</v>
+      </c>
+      <c r="C103" t="s">
+        <v>347</v>
+      </c>
+      <c r="D103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E103" t="s">
+        <v>339</v>
+      </c>
+      <c r="F103" t="s">
+        <v>336</v>
+      </c>
+      <c r="G103" t="s">
+        <v>337</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="A104" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B104" t="s">
+        <v>347</v>
+      </c>
+      <c r="C104" t="s">
+        <v>347</v>
+      </c>
+      <c r="D104" t="s">
+        <v>347</v>
+      </c>
+      <c r="E104" t="s">
+        <v>340</v>
+      </c>
+      <c r="F104" t="s">
+        <v>336</v>
+      </c>
+      <c r="G104" t="s">
+        <v>337</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="A105" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B105" t="s">
+        <v>347</v>
+      </c>
+      <c r="C105" t="s">
+        <v>347</v>
+      </c>
+      <c r="D105" t="s">
+        <v>347</v>
+      </c>
+      <c r="E105" t="s">
+        <v>341</v>
+      </c>
+      <c r="F105" t="s">
+        <v>336</v>
+      </c>
+      <c r="G105" t="s">
+        <v>337</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="106" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="A106" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" t="s">
+        <v>347</v>
+      </c>
+      <c r="C106" t="s">
+        <v>347</v>
+      </c>
+      <c r="D106" t="s">
+        <v>347</v>
+      </c>
+      <c r="E106" t="s">
+        <v>378</v>
+      </c>
+      <c r="F106" t="s">
+        <v>336</v>
+      </c>
+      <c r="G106" t="s">
+        <v>337</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
+      <c r="E107" t="s">
+        <v>348</v>
+      </c>
+      <c r="F107" t="s">
+        <v>336</v>
+      </c>
+      <c r="G107" t="s">
+        <v>337</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
+      <c r="E108" t="s">
+        <v>350</v>
+      </c>
+      <c r="F108" t="s">
+        <v>336</v>
+      </c>
+      <c r="G108" t="s">
+        <v>353</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
+      <c r="E109" t="s">
+        <v>351</v>
+      </c>
+      <c r="F109" t="s">
+        <v>336</v>
+      </c>
+      <c r="G109" t="s">
+        <v>353</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
+      <c r="E110" t="s">
+        <v>352</v>
+      </c>
+      <c r="F110" t="s">
+        <v>336</v>
+      </c>
+      <c r="G110" t="s">
+        <v>353</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
+      <c r="E111" t="s">
+        <v>354</v>
+      </c>
+      <c r="F111" t="s">
+        <v>336</v>
+      </c>
+      <c r="G111" t="s">
+        <v>337</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>355</v>
+      </c>
+      <c r="F112" t="s">
+        <v>336</v>
+      </c>
+      <c r="G112" t="s">
+        <v>337</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>356</v>
+      </c>
+      <c r="F113" t="s">
+        <v>336</v>
+      </c>
+      <c r="G113" t="s">
+        <v>357</v>
+      </c>
+      <c r="H113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>358</v>
+      </c>
+      <c r="F114" t="s">
+        <v>336</v>
+      </c>
+      <c r="G114" t="s">
+        <v>357</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>359</v>
+      </c>
+      <c r="F115" t="s">
+        <v>336</v>
+      </c>
+      <c r="G115" t="s">
+        <v>360</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>361</v>
+      </c>
+      <c r="F116" t="s">
+        <v>336</v>
+      </c>
+      <c r="G116" t="s">
+        <v>362</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>363</v>
+      </c>
+      <c r="F117" t="s">
+        <v>336</v>
+      </c>
+      <c r="G117" t="s">
+        <v>362</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>364</v>
+      </c>
+      <c r="F118" t="s">
+        <v>336</v>
+      </c>
+      <c r="G118" t="s">
+        <v>362</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>365</v>
+      </c>
+      <c r="F119" t="s">
+        <v>336</v>
+      </c>
+      <c r="G119" t="s">
+        <v>362</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>366</v>
+      </c>
+      <c r="F120" t="s">
+        <v>336</v>
+      </c>
+      <c r="G120" t="s">
+        <v>362</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>367</v>
+      </c>
+      <c r="F121" t="s">
+        <v>336</v>
+      </c>
+      <c r="G121" t="s">
+        <v>362</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>368</v>
+      </c>
+      <c r="F122" t="s">
+        <v>336</v>
+      </c>
+      <c r="G122" t="s">
+        <v>362</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>369</v>
+      </c>
+      <c r="F123" t="s">
+        <v>336</v>
+      </c>
+      <c r="G123" t="s">
+        <v>362</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>370</v>
+      </c>
+      <c r="F124" t="s">
+        <v>336</v>
+      </c>
+      <c r="G124" t="s">
+        <v>362</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-    </row>
-    <row r="126" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>371</v>
+      </c>
+      <c r="F125" t="s">
+        <v>336</v>
+      </c>
+      <c r="G125" t="s">
+        <v>362</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>372</v>
+      </c>
+      <c r="F126" t="s">
+        <v>336</v>
+      </c>
+      <c r="G126" t="s">
+        <v>362</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-    </row>
-    <row r="128" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>373</v>
+      </c>
+      <c r="F127" t="s">
+        <v>336</v>
+      </c>
+      <c r="G127" t="s">
+        <v>362</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>374</v>
+      </c>
+      <c r="F128" t="s">
+        <v>336</v>
+      </c>
+      <c r="G128" t="s">
+        <v>362</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>375</v>
+      </c>
+      <c r="F129" t="s">
+        <v>336</v>
+      </c>
+      <c r="G129" t="s">
+        <v>362</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>376</v>
+      </c>
+      <c r="F130" t="s">
+        <v>336</v>
+      </c>
+      <c r="G130" t="s">
+        <v>362</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>377</v>
+      </c>
+      <c r="F131" t="s">
+        <v>336</v>
+      </c>
+      <c r="G131" t="s">
+        <v>362</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>379</v>
+      </c>
+      <c r="F132" t="s">
+        <v>336</v>
+      </c>
+      <c r="G132" t="s">
+        <v>362</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>380</v>
+      </c>
+      <c r="F133" t="s">
+        <v>336</v>
+      </c>
+      <c r="G133" t="s">
+        <v>362</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>381</v>
+      </c>
+      <c r="F134" t="s">
+        <v>336</v>
+      </c>
+      <c r="G134" t="s">
+        <v>362</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>382</v>
+      </c>
+      <c r="F135" t="s">
+        <v>336</v>
+      </c>
+      <c r="G135" t="s">
+        <v>362</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>383</v>
+      </c>
+      <c r="F136" t="s">
+        <v>336</v>
+      </c>
+      <c r="G136" t="s">
+        <v>362</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>384</v>
+      </c>
+      <c r="F137" t="s">
+        <v>336</v>
+      </c>
+      <c r="G137" t="s">
+        <v>362</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-    </row>
-    <row r="139" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>385</v>
+      </c>
+      <c r="F138" t="s">
+        <v>336</v>
+      </c>
+      <c r="G138" t="s">
+        <v>362</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>386</v>
+      </c>
+      <c r="F139" t="s">
+        <v>336</v>
+      </c>
+      <c r="G139" t="s">
+        <v>362</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-    </row>
-    <row r="141" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>387</v>
+      </c>
+      <c r="F140" t="s">
+        <v>336</v>
+      </c>
+      <c r="G140" t="s">
+        <v>362</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-    </row>
-    <row r="142" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>388</v>
+      </c>
+      <c r="F141" t="s">
+        <v>336</v>
+      </c>
+      <c r="G141" t="s">
+        <v>362</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-    </row>
-    <row r="143" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>389</v>
+      </c>
+      <c r="F142" t="s">
+        <v>336</v>
+      </c>
+      <c r="G142" t="s">
+        <v>362</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-    </row>
-    <row r="144" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>390</v>
+      </c>
+      <c r="F143" t="s">
+        <v>336</v>
+      </c>
+      <c r="G143" t="s">
+        <v>362</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-    </row>
-    <row r="145" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>391</v>
+      </c>
+      <c r="F144" t="s">
+        <v>336</v>
+      </c>
+      <c r="G144" t="s">
+        <v>362</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-    </row>
-    <row r="146" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>392</v>
+      </c>
+      <c r="F145" t="s">
+        <v>336</v>
+      </c>
+      <c r="G145" t="s">
+        <v>362</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-    </row>
-    <row r="147" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>393</v>
+      </c>
+      <c r="F146" t="s">
+        <v>336</v>
+      </c>
+      <c r="G146" t="s">
+        <v>362</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4809,8 +5604,9 @@
       <c r="C261" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/attendance/src/main/resources/Sanity.xlsx
+++ b/attendance/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\attendance\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D55BF0-E999-4831-AA47-1494B0D69379}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EC955D-21E5-448E-A5EA-C77AB4D6B0AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="254">
   <si>
     <t>TCID</t>
   </si>
@@ -783,6 +783,15 @@
   </si>
   <si>
     <t>25,26,27,28</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>com.darwinbox.attendance.shifts.CRUDOperations</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1164,7 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="F76" sqref="F76:H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3120,7 +3129,27 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E76" t="s">
+        <v>253</v>
+      </c>
+      <c r="F76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" t="s">
+        <v>159</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>

--- a/attendance/src/main/resources/Sanity.xlsx
+++ b/attendance/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\attendance\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EC955D-21E5-448E-A5EA-C77AB4D6B0AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4A6CED-B3F1-469F-B5A5-53D450D9CDBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="251">
   <si>
     <t>TCID</t>
   </si>
@@ -783,15 +783,6 @@
   </si>
   <si>
     <t>25,26,27,28</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Recruitment</t>
-  </si>
-  <si>
-    <t>com.darwinbox.attendance.shifts.CRUDOperations</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76:H76"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3129,27 +3120,9 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E76" t="s">
-        <v>253</v>
-      </c>
-      <c r="F76" t="s">
-        <v>158</v>
-      </c>
-      <c r="G76" t="s">
-        <v>159</v>
-      </c>
-      <c r="H76" t="s">
-        <v>9</v>
-      </c>
+      <c r="A76" s="4"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
